--- a/cod_cliente.xlsx
+++ b/cod_cliente.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bernoulli-my.sharepoint.com/personal/felipe_nogueira_bernoulli_com_br/Documents/Área de Trabalho/Projeto_Impostos/impostos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bernoulli.sharepoint.com/sites/ReportsControladoria/Documentos Compartilhados/Automatizações/Aplicativo_Conceito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{63B37EFA-26E5-4DE1-B611-230D77B97092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3309044F-F892-4C7E-AC71-13D966EA030B}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{63B37EFA-26E5-4DE1-B611-230D77B97092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CF72385-281E-4B22-A102-A0414AF16087}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>TITULO</t>
   </si>
@@ -146,6 +146,45 @@
   </si>
   <si>
     <t>CONTABILIZAÇÃO NOTA DE DÉBITO NA MÓDULO (REF. FOLHA PSM) DA EDITORA/MATRIZ</t>
+  </si>
+  <si>
+    <t>CONTA_BANCO</t>
+  </si>
+  <si>
+    <t>0ITAU MTZ</t>
+  </si>
+  <si>
+    <t>8ITAU P2R</t>
+  </si>
+  <si>
+    <t>6ITAU MOD</t>
+  </si>
+  <si>
+    <t>0ITAU SSA</t>
+  </si>
+  <si>
+    <t>0ITAU EDI</t>
+  </si>
+  <si>
+    <t>10ITAU 2FR</t>
+  </si>
+  <si>
+    <t>13ITAU JAB</t>
+  </si>
+  <si>
+    <t>12ITAU LEC</t>
+  </si>
+  <si>
+    <t>14ITAU CGS</t>
+  </si>
+  <si>
+    <t>7ITAU LIVR</t>
+  </si>
+  <si>
+    <t>9ITAU F2R</t>
+  </si>
+  <si>
+    <t>15ITAU SPE</t>
   </si>
 </sst>
 </file>
@@ -155,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +211,12 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -216,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -228,6 +273,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,342 +579,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="113.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="14.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>54491</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>24849</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>34122</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5">
         <v>24542</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>37715</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>71723</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>82490</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5">
         <v>81744</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5">
         <v>92806</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>64281</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>78354</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5">
         <v>97824</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="5">
         <v>54491</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="5">
         <v>24117</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>74385</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>74385</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>74385</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="5">
         <v>74385</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="5">
         <v>74385</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>74385</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="5">
         <v>74385</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="5">
         <v>74385</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="5">
         <v>74385</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>74385</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="5">
         <v>74385</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="5">
         <v>74385</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="5">
         <v>24117</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="5">
         <v>54491</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="5">
         <v>24117</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="5">
         <v>17187</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="5">
         <v>14644</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="5">
         <v>54491</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="5">
         <v>34122</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="5">
         <v>24849</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="5">
         <v>24542</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="5">
         <v>24542</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="5">
         <v>24542</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="5">
         <v>24542</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="5">
         <v>24542</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="5">
         <v>24542</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/cod_cliente.xlsx
+++ b/cod_cliente.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bernoulli.sharepoint.com/sites/ReportsControladoria/Documentos Compartilhados/Automatizações/Aplicativo_Conceito/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefanie.santos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{63B37EFA-26E5-4DE1-B611-230D77B97092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CF72385-281E-4B22-A102-A0414AF16087}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D880C237-0A1C-46FB-AB83-45ADCEB1A955}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
   <si>
     <t>TITULO</t>
   </si>
@@ -185,6 +185,69 @@
   </si>
   <si>
     <t>15ITAU SPE</t>
+  </si>
+  <si>
+    <t>0000054491</t>
+  </si>
+  <si>
+    <t>0000024849</t>
+  </si>
+  <si>
+    <t>0000034122</t>
+  </si>
+  <si>
+    <t>0000024542</t>
+  </si>
+  <si>
+    <t>0000037715</t>
+  </si>
+  <si>
+    <t>0000071723</t>
+  </si>
+  <si>
+    <t>0000082490</t>
+  </si>
+  <si>
+    <t>0000081744</t>
+  </si>
+  <si>
+    <t>0000092806</t>
+  </si>
+  <si>
+    <t>0000064281</t>
+  </si>
+  <si>
+    <t>0000078354</t>
+  </si>
+  <si>
+    <t>0000097824</t>
+  </si>
+  <si>
+    <t>0000024117</t>
+  </si>
+  <si>
+    <t>0000074385</t>
+  </si>
+  <si>
+    <t>0000017187</t>
+  </si>
+  <si>
+    <t>0000014644</t>
+  </si>
+  <si>
+    <t>CENTRO_CUSTO</t>
+  </si>
+  <si>
+    <t>RECEBER_PAGAR</t>
+  </si>
+  <si>
+    <t>01.101</t>
+  </si>
+  <si>
+    <t>Receber</t>
+  </si>
+  <si>
+    <t>Pagar</t>
   </si>
 </sst>
 </file>
@@ -194,7 +257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +281,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -261,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -276,6 +345,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,19 +651,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="113.54296875" customWidth="1"/>
-    <col min="2" max="3" width="14.1796875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="88" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,454 +675,715 @@
       <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>54491</v>
+      <c r="B2" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>24849</v>
+      <c r="B3" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>34122</v>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>24542</v>
+      <c r="B5" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>37715</v>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>71723</v>
+      <c r="B7" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>82490</v>
+      <c r="B8" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <v>81744</v>
+      <c r="B9" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
-        <v>92806</v>
+      <c r="B10" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>64281</v>
+      <c r="B11" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
-        <v>78354</v>
+      <c r="B12" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
-        <v>97824</v>
+      <c r="B13" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
-        <v>54491</v>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
-        <v>24117</v>
+      <c r="B15" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
-        <v>74385</v>
+      <c r="B16" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
-        <v>74385</v>
+      <c r="B17" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
-        <v>74385</v>
+      <c r="B18" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
-        <v>74385</v>
+      <c r="B19" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
-        <v>74385</v>
+      <c r="B20" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
-        <v>74385</v>
+      <c r="B21" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
-        <v>74385</v>
+      <c r="B22" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
-        <v>74385</v>
+      <c r="B23" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
-        <v>74385</v>
+      <c r="B24" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
-        <v>74385</v>
+      <c r="B25" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
-        <v>74385</v>
+      <c r="B26" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
-        <v>74385</v>
+      <c r="B27" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
-        <v>24117</v>
+      <c r="B28" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
-        <v>54491</v>
+      <c r="B29" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="5">
-        <v>24117</v>
+      <c r="B30" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="5">
-        <v>17187</v>
+      <c r="B31" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="5">
-        <v>14644</v>
+      <c r="B32" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="5">
-        <v>54491</v>
+      <c r="B33" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="5">
-        <v>34122</v>
+      <c r="B34" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="5">
-        <v>24849</v>
+      <c r="B35" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="5">
-        <v>24542</v>
+      <c r="B36" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="5">
-        <v>24542</v>
+      <c r="B37" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="5">
-        <v>24542</v>
+      <c r="B38" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5">
-        <v>24542</v>
+      <c r="B39" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="5">
-        <v>24542</v>
+      <c r="B40" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="5">
-        <v>24542</v>
+      <c r="B41" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D41" xr:uid="{02032D81-0C11-43C7-A72B-3E2152D11D38}">
+      <formula1>"Receber,Pagar"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005219FA7A1A9B0243864A77535CA0C336" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="8ceb7083f2d595e1b520c63b7c73b80b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="53ff302a-d837-42c4-860b-3303941e054e" xmlns:ns3="70d33280-974f-43b3-b642-143700c3b2d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="169336562a312621518ccdabcd096caa" ns2:_="" ns3:_="">
     <xsd:import namespace="53ff302a-d837-42c4-860b-3303941e054e"/>
@@ -1265,16 +1600,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8C1EB07-BC68-4C3B-A05B-B56DC4083FB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E99E2F6-3FC8-4B9C-AA3C-FAD0A9B24014}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1291,12 +1625,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8C1EB07-BC68-4C3B-A05B-B56DC4083FB9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>